--- a/src/main/resources/receivableStaticsInvoiceSummary.xlsx
+++ b/src/main/resources/receivableStaticsInvoiceSummary.xlsx
@@ -9,19 +9,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>小于1年</t>
-  </si>
-  <si>
     <t>1-2年</t>
   </si>
   <si>
@@ -35,10 +32,6 @@
   </si>
   <si>
     <t>合计</t>
-  </si>
-  <si>
-    <t>{{sum}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浙江中一检测</t>
@@ -58,6 +51,19 @@
   </si>
   <si>
     <t>{{summary4}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6月</t>
+  </si>
+  <si>
+    <t>6-9月</t>
+  </si>
+  <si>
+    <t>9-12月</t>
+  </si>
+  <si>
+    <t>{{sum}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G6"/>
+  <dimension ref="A4:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,49 +825,57 @@
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/receivableStaticsInvoiceSummary.xlsx
+++ b/src/main/resources/receivableStaticsInvoiceSummary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>公司</t>
   </si>
@@ -38,14 +38,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{{summary2}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6月</t>
+  </si>
+  <si>
+    <t>6-9月</t>
+  </si>
+  <si>
+    <t>9-12月</t>
+  </si>
+  <si>
+    <t>1-3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{summary0}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{sum}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{summary6}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{{summary1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{summary2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{summary3}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,16 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-6月</t>
-  </si>
-  <si>
-    <t>6-9月</t>
-  </si>
-  <si>
-    <t>9-12月</t>
-  </si>
-  <si>
-    <t>{{sum}}</t>
+    <t>{{summary5}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,15 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="57" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -211,8 +224,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
@@ -224,7 +237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8324850" cy="662940"/>
+          <a:ext cx="9391650" cy="662940"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -814,19 +827,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I6"/>
+  <dimension ref="A4:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,48 +848,58 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/receivableStaticsInvoiceSummary.xlsx
+++ b/src/main/resources/receivableStaticsInvoiceSummary.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>公司</t>
   </si>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{summary2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-6月</t>
   </si>
   <si>
@@ -51,35 +47,47 @@
     <t>9-12月</t>
   </si>
   <si>
-    <t>1-3月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{summary0}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{sum}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{summary6}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{summary1}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{summary3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{summary4}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{summary5}}</t>
+    <t>小于3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(summary0;0.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(summary1;0.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(summary2;0.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(summary3;0.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(summary4;0.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(summary5;0.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(summary5;0.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(badAmount;0.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(sum;0.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位:万元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,34 +835,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J6"/>
+  <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
@@ -872,34 +886,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
